--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Moh</t>
   </si>
@@ -35,24 +35,6 @@
   </si>
   <si>
     <t>Hydro2</t>
-  </si>
-  <si>
-    <t>Hydro1_disc</t>
-  </si>
-  <si>
-    <t>Hydro2_disc</t>
-  </si>
-  <si>
-    <t>Hydro1_WL</t>
-  </si>
-  <si>
-    <t>Hydro2_WL</t>
-  </si>
-  <si>
-    <t>Hydro1_vol</t>
-  </si>
-  <si>
-    <t>Hydro2_vol</t>
   </si>
   <si>
     <t>Vmax</t>
@@ -103,7 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -135,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,12 +139,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -472,24 +448,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -499,164 +469,98 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" s="3">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B5" s="3">
+        <v>388</v>
+      </c>
+      <c r="C5" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6" s="3">
+        <v>375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="B7" s="3">
+        <v>388</v>
+      </c>
+      <c r="C7" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
+      <c r="B9" s="3">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3">
-        <v>388</v>
-      </c>
-      <c r="G5" s="3">
-        <v>331</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3">
-        <v>375</v>
-      </c>
-      <c r="G6" s="3">
-        <v>326</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3">
-        <v>388</v>
-      </c>
-      <c r="G7" s="3">
-        <v>331</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -664,16 +568,10 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>43</v>
@@ -681,29 +579,17 @@
       <c r="C11" s="3">
         <v>30</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Hydro"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Moh</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Mm3</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>Ormsetfoss</t>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,9 +144,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -450,29 +450,29 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>45</v>
@@ -483,7 +483,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -494,18 +494,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>388</v>
@@ -516,7 +516,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>375</v>
@@ -527,7 +527,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>388</v>
@@ -538,18 +538,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>12</v>
@@ -560,7 +560,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>43</v>
@@ -582,7 +582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
@@ -603,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Hydro"/>
@@ -450,7 +450,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -478,7 +478,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -497,10 +497,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -603,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -611,7 +611,7 @@
     <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2.08333</v>
       </c>
@@ -635,7 +635,7 @@
         <v>375.99242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>4.16667</v>
       </c>
@@ -643,7 +643,7 @@
         <v>376.83333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>6.25</v>
       </c>
@@ -651,7 +651,7 @@
         <v>377.63462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>8.33333</v>
       </c>
@@ -659,7 +659,7 @@
         <v>378.40476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>10.41667</v>
       </c>
@@ -667,7 +667,7 @@
         <v>379.09314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>12.5</v>
       </c>
@@ -675,7 +675,7 @@
         <v>379.70588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>14.58333</v>
       </c>
@@ -683,7 +683,7 @@
         <v>380.30093</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>16.66667</v>
       </c>
@@ -691,7 +691,7 @@
         <v>380.87963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>18.75</v>
       </c>
@@ -699,7 +699,7 @@
         <v>381.45833</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>20.83333</v>
       </c>
@@ -707,7 +707,7 @@
         <v>382.03509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>22.91667</v>
       </c>
@@ -715,7 +715,7 @@
         <v>382.58333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -723,7 +723,7 @@
         <v>383.13158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>27.08333</v>
       </c>
@@ -731,7 +731,7 @@
         <v>383.67982</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>29.16667</v>
       </c>
@@ -739,7 +739,7 @@
         <v>384.22807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>31.25</v>
       </c>
@@ -747,7 +747,7 @@
         <v>384.77632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>33.33333</v>
       </c>
@@ -755,7 +755,7 @@
         <v>385.32456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>35.41667</v>
       </c>
@@ -763,7 +763,7 @@
         <v>385.85417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>37.5</v>
       </c>
@@ -771,7 +771,7 @@
         <v>386.35714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>39.58333</v>
       </c>
@@ -779,7 +779,7 @@
         <v>386.85317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>41.66667</v>
       </c>
@@ -787,7 +787,7 @@
         <v>387.33333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>43.75</v>
       </c>
@@ -795,7 +795,7 @@
         <v>387.79348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>45.83333</v>
       </c>
@@ -803,7 +803,7 @@
         <v>388.24638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>47.91667</v>
       </c>
@@ -811,7 +811,7 @@
         <v>388.65278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>50</v>
       </c>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Hydro"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Moh</t>
   </si>
@@ -71,14 +71,22 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Pump_min</t>
+  </si>
+  <si>
+    <t>Pump_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +97,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -120,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,8 +157,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,25 +474,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -474,10 +500,10 @@
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>45</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="9">
         <v>20</v>
       </c>
     </row>
@@ -485,10 +511,10 @@
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -496,10 +522,10 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>45</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>20</v>
       </c>
     </row>
@@ -507,10 +533,10 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>388</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>331</v>
       </c>
     </row>
@@ -518,10 +544,10 @@
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>375</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>326</v>
       </c>
     </row>
@@ -529,10 +555,10 @@
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>388</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>331</v>
       </c>
     </row>
@@ -540,10 +566,10 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
     </row>
@@ -551,10 +577,10 @@
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>12</v>
       </c>
     </row>
@@ -562,10 +588,10 @@
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -573,10 +599,10 @@
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>30</v>
       </c>
     </row>
@@ -584,11 +610,33 @@
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +651,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -86,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,9 +155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -480,9 +471,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -617,25 +608,25 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1.6</v>
       </c>
     </row>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Moh</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Pump_max</t>
+  </si>
+  <si>
+    <t>Vmax_reg</t>
+  </si>
+  <si>
+    <t>Vmin_reg</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +103,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -128,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -465,15 +480,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -628,6 +643,28 @@
       </c>
       <c r="C14" s="9">
         <v>1.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10">
+        <v>35</v>
+      </c>
+      <c r="C16" s="10">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +687,7 @@
     <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -666,7 +703,7 @@
         <v>375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2.08333</v>
       </c>
@@ -674,7 +711,7 @@
         <v>375.99242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>4.16667</v>
       </c>
@@ -682,7 +719,7 @@
         <v>376.83333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>6.25</v>
       </c>
@@ -690,7 +727,7 @@
         <v>377.63462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>8.33333</v>
       </c>
@@ -698,7 +735,7 @@
         <v>378.40476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>10.41667</v>
       </c>
@@ -706,7 +743,7 @@
         <v>379.09314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>12.5</v>
       </c>
@@ -714,7 +751,7 @@
         <v>379.70588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>14.58333</v>
       </c>
@@ -722,7 +759,7 @@
         <v>380.30093</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>16.66667</v>
       </c>
@@ -730,7 +767,7 @@
         <v>380.87963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>18.75</v>
       </c>
@@ -738,7 +775,7 @@
         <v>381.45833</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>20.83333</v>
       </c>
@@ -746,7 +783,7 @@
         <v>382.03509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>22.91667</v>
       </c>
@@ -754,7 +791,7 @@
         <v>382.58333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>25</v>
       </c>
@@ -762,7 +799,7 @@
         <v>383.13158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4">
         <v>27.08333</v>
       </c>
@@ -770,7 +807,7 @@
         <v>383.67982</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4">
         <v>29.16667</v>
       </c>
@@ -778,7 +815,7 @@
         <v>384.22807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4">
         <v>31.25</v>
       </c>
@@ -786,7 +823,7 @@
         <v>384.77632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>33.33333</v>
       </c>
@@ -794,7 +831,7 @@
         <v>385.32456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>35.41667</v>
       </c>
@@ -802,7 +839,7 @@
         <v>385.85417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>37.5</v>
       </c>
@@ -810,7 +847,7 @@
         <v>386.35714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>39.58333</v>
       </c>
@@ -818,7 +855,7 @@
         <v>386.85317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>41.66667</v>
       </c>
@@ -826,7 +863,7 @@
         <v>387.33333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>43.75</v>
       </c>
@@ -834,7 +871,7 @@
         <v>387.79348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>45.83333</v>
       </c>
@@ -842,7 +879,7 @@
         <v>388.24638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4">
         <v>47.91667</v>
       </c>
@@ -850,7 +887,7 @@
         <v>388.65278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>50</v>
       </c>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -10,25 +10,28 @@
     <sheet r:id="rId1" sheetId="1" name="Hydro"/>
     <sheet r:id="rId2" sheetId="2" name="Vol_head"/>
     <sheet r:id="rId3" sheetId="3" name="flow"/>
-    <sheet r:id="rId4" sheetId="4" name="Sheet4"/>
+    <sheet r:id="rId4" sheetId="4" name="Vol_head2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>Mm3</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Moh</t>
   </si>
   <si>
     <t>m3/s</t>
-  </si>
-  <si>
-    <t>Mm3</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Ormsetfoss</t>
@@ -86,13 +89,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -128,37 +137,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -471,162 +495,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="15">
+        <v>45</v>
+      </c>
+      <c r="C2" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15">
+        <v>388</v>
+      </c>
+      <c r="C5" s="15">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>375</v>
+      </c>
+      <c r="C6" s="15">
+        <v>326</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15">
+        <v>388</v>
+      </c>
+      <c r="C7" s="15">
+        <v>331</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="B14" s="15">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <v>388</v>
-      </c>
-      <c r="C5" s="9">
-        <v>331</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
-        <v>375</v>
-      </c>
-      <c r="C6" s="9">
-        <v>326</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9">
-        <v>388</v>
-      </c>
-      <c r="C7" s="9">
-        <v>331</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43</v>
-      </c>
-      <c r="C11" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="C14" s="15">
         <v>1.6</v>
       </c>
     </row>
@@ -646,215 +670,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="11">
         <v>2.08333</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>375.99242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="11">
         <v>4.16667</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>376.83333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="11">
         <v>6.25</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>377.63462</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="11">
         <v>8.33333</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>378.40476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11">
         <v>10.41667</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>379.09314</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11">
         <v>12.5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>379.70588</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11">
         <v>14.58333</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>380.30093</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11">
         <v>16.66667</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>380.87963</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="11">
         <v>18.75</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>381.45833</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="11">
         <v>20.83333</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>382.03509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="11">
         <v>22.91667</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>382.58333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="10">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>383.13158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="11">
         <v>27.08333</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="11">
         <v>383.67982</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="11">
         <v>29.16667</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>384.22807</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="11">
         <v>31.25</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>384.77632</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="11">
         <v>33.33333</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>385.32456</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="11">
         <v>35.41667</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <v>385.85417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="11">
         <v>37.5</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <v>386.35714</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="11">
         <v>39.58333</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <v>386.85317</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="11">
         <v>41.66667</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <v>387.33333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="11">
         <v>43.75</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="11">
         <v>387.79348</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="11">
         <v>45.83333</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="11">
         <v>388.24638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="11">
         <v>47.91667</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>388.65278</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="10">
         <v>50</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="10">
         <v>389</v>
       </c>
     </row>
@@ -874,47 +898,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10">
+        <v>388</v>
+      </c>
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>388</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+      <c r="A3" s="11">
         <v>388.2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>4.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+      <c r="A4" s="11">
         <v>388.5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>20.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>389</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>68.4</v>
       </c>
     </row>
@@ -928,12 +952,172 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>326</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
+        <v>1.667</v>
+      </c>
+      <c r="B3" s="4">
+        <v>326.5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>327</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>327.5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
+        <v>5.1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>328</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>328.5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>329</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>329.5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>330</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>16.4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>330.5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>331</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>331.5</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -99,13 +99,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,26 +151,17 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -178,10 +169,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -496,18 +487,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -515,10 +506,10 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>45</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>20</v>
       </c>
     </row>
@@ -526,10 +517,10 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
     </row>
@@ -537,10 +528,10 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>45</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>20</v>
       </c>
     </row>
@@ -548,10 +539,10 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>388</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>331.5</v>
       </c>
     </row>
@@ -559,10 +550,10 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>375</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>326</v>
       </c>
     </row>
@@ -570,10 +561,10 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>388</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>331</v>
       </c>
     </row>
@@ -581,10 +572,10 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
     </row>
@@ -592,10 +583,10 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>12</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>12</v>
       </c>
     </row>
@@ -603,10 +594,10 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0</v>
       </c>
     </row>
@@ -614,10 +605,10 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>43</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>30</v>
       </c>
     </row>
@@ -625,10 +616,10 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
     </row>
@@ -636,10 +627,10 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -647,10 +638,10 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>1.6</v>
       </c>
     </row>
@@ -670,8 +661,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -683,202 +674,202 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="3">
         <v>375</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="11">
+      <c r="A3" s="4">
         <v>2.08333</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="4">
         <v>375.99242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="11">
+      <c r="A4" s="4">
         <v>4.16667</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <v>376.83333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="11">
+      <c r="A5" s="4">
         <v>6.25</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <v>377.63462</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="11">
+      <c r="A6" s="4">
         <v>8.33333</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
         <v>378.40476</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11">
+      <c r="A7" s="4">
         <v>10.41667</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <v>379.09314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11">
+      <c r="A8" s="4">
         <v>12.5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="4">
         <v>379.70588</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="11">
+      <c r="A9" s="4">
         <v>14.58333</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="4">
         <v>380.30093</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11">
+      <c r="A10" s="4">
         <v>16.66667</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>380.87963</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="11">
+      <c r="A11" s="4">
         <v>18.75</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="4">
         <v>381.45833</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="11">
+      <c r="A12" s="4">
         <v>20.83333</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="4">
         <v>382.03509</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="11">
+      <c r="A13" s="4">
         <v>22.91667</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="4">
         <v>382.58333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10">
+      <c r="A14" s="3">
         <v>25</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="4">
         <v>383.13158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="11">
+      <c r="A15" s="4">
         <v>27.08333</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <v>383.67982</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="11">
+      <c r="A16" s="4">
         <v>29.16667</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <v>384.22807</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="11">
+      <c r="A17" s="4">
         <v>31.25</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <v>384.77632</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="11">
+      <c r="A18" s="4">
         <v>33.33333</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>385.32456</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="11">
+      <c r="A19" s="4">
         <v>35.41667</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <v>385.85417</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="11">
+      <c r="A20" s="4">
         <v>37.5</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <v>386.35714</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="11">
+      <c r="A21" s="4">
         <v>39.58333</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="4">
         <v>386.85317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="11">
+      <c r="A22" s="4">
         <v>41.66667</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="4">
         <v>387.33333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="11">
+      <c r="A23" s="4">
         <v>43.75</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="4">
         <v>387.79348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="11">
+      <c r="A24" s="4">
         <v>45.83333</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="4">
         <v>388.24638</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="11">
+      <c r="A25" s="4">
         <v>47.91667</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="4">
         <v>388.65278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="10">
+      <c r="A26" s="3">
         <v>50</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>389</v>
       </c>
     </row>
@@ -898,47 +889,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10">
+      <c r="A2" s="3">
         <v>388</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11">
+      <c r="A3" s="4">
         <v>388.2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="4">
         <v>4.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11">
+      <c r="A4" s="4">
         <v>388.5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <v>20.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10">
+      <c r="A5" s="3">
         <v>389</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <v>68.4</v>
       </c>
     </row>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,12 +100,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -137,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,11 +145,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -164,9 +155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -486,19 +474,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -506,10 +494,10 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>45</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>20</v>
       </c>
     </row>
@@ -517,10 +505,10 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -528,10 +516,10 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>45</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>20</v>
       </c>
     </row>
@@ -539,10 +527,10 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
-        <v>388</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="10">
+        <v>389</v>
+      </c>
+      <c r="C5" s="10">
         <v>331.5</v>
       </c>
     </row>
@@ -550,10 +538,10 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>375</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>326</v>
       </c>
     </row>
@@ -561,32 +549,32 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12">
-        <v>388</v>
-      </c>
-      <c r="C7" s="12">
-        <v>331</v>
+      <c r="B7" s="10">
+        <v>389</v>
+      </c>
+      <c r="C7" s="10">
+        <v>331.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>12</v>
       </c>
     </row>
@@ -594,10 +582,10 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -605,10 +593,10 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>43</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>30</v>
       </c>
     </row>
@@ -616,10 +604,10 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>4</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>2</v>
       </c>
     </row>
@@ -627,10 +615,10 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
         <v>0</v>
       </c>
     </row>
@@ -638,10 +626,10 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
         <v>1.6</v>
       </c>
     </row>
@@ -661,15 +649,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -889,12 +877,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -949,14 +937,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +955,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -978,7 +966,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>1.667</v>
       </c>
@@ -989,7 +977,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3.4</v>
       </c>
@@ -1000,7 +988,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>4.2</v>
       </c>
@@ -1011,7 +999,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5.1</v>
       </c>
@@ -1022,7 +1010,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>7.1</v>
       </c>
@@ -1033,7 +1021,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>9.2</v>
       </c>
@@ -1044,7 +1032,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>11.4</v>
       </c>
@@ -1055,7 +1043,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>13.7</v>
       </c>
@@ -1066,7 +1054,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>16.4</v>
       </c>
@@ -1077,7 +1065,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>18.8</v>
       </c>
@@ -1088,7 +1076,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>20</v>
       </c>
@@ -1099,9 +1087,9 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Mm3</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Pump_max</t>
+  </si>
+  <si>
+    <t>Spill_min</t>
+  </si>
+  <si>
+    <t>Spill_max</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +106,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -131,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +173,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -468,15 +483,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -631,6 +646,28 @@
       </c>
       <c r="C14" s="10">
         <v>1.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +106,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,9 +167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -490,8 +481,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -648,25 +639,25 @@
         <v>1.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>12</v>
       </c>
     </row>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -655,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="10">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10">
         <v>12</v>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -658,7 +658,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="10">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -600,7 +600,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10">
         <v>30</v>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -655,10 +655,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="10">
-        <v>50</v>
+        <v>10000000</v>
       </c>
       <c r="C16" s="10">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -658,7 +658,7 @@
         <v>10000000</v>
       </c>
       <c r="C16" s="10">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -523,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="10">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -485,7 +485,7 @@
     <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -507,7 +507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -518,18 +518,18 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="10">
-        <v>36</v>
+        <v>37.3</v>
       </c>
       <c r="C4" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,7 +540,7 @@
         <v>331.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -551,7 +551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -562,7 +562,7 @@
         <v>331.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -485,7 +485,7 @@
     <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,10 +504,10 @@
         <v>45</v>
       </c>
       <c r="C2" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -526,10 +526,10 @@
         <v>37.3</v>
       </c>
       <c r="C4" s="10">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,7 +540,7 @@
         <v>331.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -551,7 +551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -562,7 +562,7 @@
         <v>331.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -603,10 +603,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">

--- a/data/Ormset_Data.xlsx
+++ b/data/Ormset_Data.xlsx
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
